--- a/EJEMPLOS/REFERENCIAS_RADCOR_FE2022.xlsx
+++ b/EJEMPLOS/REFERENCIAS_RADCOR_FE2022.xlsx
@@ -30,9 +30,6 @@
     <t>CI</t>
   </si>
   <si>
-    <t>nitrogeno_total</t>
-  </si>
-  <si>
     <t>nitrito</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>fosfato</t>
+  </si>
+  <si>
+    <t>TON</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1026,16 +1026,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/EJEMPLOS/REFERENCIAS_RADCOR_FE2022.xlsx
+++ b/EJEMPLOS/REFERENCIAS_RADCOR_FE2022.xlsx
@@ -39,7 +39,7 @@
     <t>fosfato</t>
   </si>
   <si>
-    <t>TON</t>
+    <t>ton</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
